--- a/AccountSum/SpeedNetworking/Speed Networking.xlsx
+++ b/AccountSum/SpeedNetworking/Speed Networking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="24000" windowHeight="9288" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="24000" windowHeight="9288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Round4" sheetId="7" r:id="rId8"/>
     <sheet name="Round5" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="375">
   <si>
     <t>12 mins per sitting</t>
   </si>
@@ -1163,8 +1163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,24 +1222,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,21 +1523,21 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="37.5546875" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1558,210 +1557,209 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1769,14 +1767,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" hidden="1" width="0" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" customWidth="1"/>
@@ -1785,49 +1783,49 @@
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C1" s="4">
         <v>0.28125</v>
       </c>
       <c r="D1" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E1" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F1" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G1" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H1" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I1" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J1" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K1" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L1" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M1" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N1" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1867,7 +1865,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" ht="28.8">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -1911,7 +1909,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1927,7 +1925,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1943,49 +1941,49 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C6" s="4">
         <v>0.28125</v>
       </c>
       <c r="D6" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E6" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F6" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G6" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H6" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I6" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J6" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K6" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L6" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M6" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N6" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -2025,7 +2023,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" ht="28.8">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>130</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2085,7 +2083,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2101,49 +2099,49 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C11" s="4">
         <v>0.28125</v>
       </c>
       <c r="D11" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E11" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F11" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G11" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H11" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I11" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J11" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K11" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L11" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M11" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N11" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -2183,7 +2181,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" ht="28.8">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>131</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2243,7 +2241,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2259,49 +2257,49 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C16" s="4">
         <v>0.28125</v>
       </c>
       <c r="D16" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E16" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F16" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G16" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H16" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I16" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J16" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K16" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L16" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M16" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N16" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -2341,7 +2339,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" ht="28.8">
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>132</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2401,7 +2399,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2417,49 +2415,49 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C21" s="4">
         <v>0.28125</v>
       </c>
       <c r="D21" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E21" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F21" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G21" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H21" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I21" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J21" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K21" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L21" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M21" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N21" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -2499,7 +2497,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" ht="57.6">
+    <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>133</v>
       </c>
@@ -2543,7 +2541,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2559,7 +2557,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2575,49 +2573,49 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C26" s="4">
         <v>0.28125</v>
       </c>
       <c r="D26" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E26" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F26" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G26" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H26" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I26" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J26" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K26" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L26" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M26" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N26" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -2657,7 +2655,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" ht="28.8">
+    <row r="28" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>134</v>
       </c>
@@ -2701,7 +2699,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2717,7 +2715,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2733,49 +2731,49 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C31" s="4">
         <v>0.28125</v>
       </c>
       <c r="D31" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E31" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F31" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G31" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H31" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I31" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J31" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K31" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L31" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M31" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N31" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -2815,7 +2813,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" ht="28.8">
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2875,7 +2873,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2891,49 +2889,49 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C36" s="4">
         <v>0.28125</v>
       </c>
       <c r="D36" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E36" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F36" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G36" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H36" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I36" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J36" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K36" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L36" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M36" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N36" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2973,7 +2971,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" ht="28.8">
+    <row r="38" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>136</v>
       </c>
@@ -3017,7 +3015,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3033,7 +3031,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3049,49 +3047,49 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C41" s="4">
         <v>0.28125</v>
       </c>
       <c r="D41" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E41" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F41" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G41" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H41" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I41" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J41" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K41" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L41" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M41" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N41" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
@@ -3131,7 +3129,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" ht="28.8">
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>137</v>
       </c>
@@ -3175,7 +3173,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3191,7 +3189,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3207,49 +3205,49 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C46" s="4">
         <v>0.28125</v>
       </c>
       <c r="D46" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E46" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F46" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G46" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H46" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I46" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J46" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K46" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L46" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M46" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N46" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
@@ -3289,7 +3287,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" ht="28.8">
+    <row r="48" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3349,7 +3347,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3365,49 +3363,49 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C51" s="4">
         <v>0.28125</v>
       </c>
       <c r="D51" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E51" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F51" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G51" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H51" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I51" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J51" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K51" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L51" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M51" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N51" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -3447,7 +3445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" ht="28.8">
+    <row r="53" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>139</v>
       </c>
@@ -3491,7 +3489,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3507,7 +3505,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3523,49 +3521,49 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C56" s="4">
         <v>0.28125</v>
       </c>
       <c r="D56" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E56" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F56" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G56" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H56" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I56" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J56" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K56" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L56" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M56" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N56" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -3605,7 +3603,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" ht="28.8">
+    <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
@@ -3649,7 +3647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3665,7 +3663,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3681,49 +3679,49 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C61" s="4">
         <v>0.28125</v>
       </c>
       <c r="D61" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E61" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F61" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G61" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H61" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I61" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J61" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K61" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L61" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M61" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N61" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -3763,7 +3761,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" ht="28.8">
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>141</v>
       </c>
@@ -3807,7 +3805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3823,7 +3821,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3839,49 +3837,49 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C66" s="4">
         <v>0.28125</v>
       </c>
       <c r="D66" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E66" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F66" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G66" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H66" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I66" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J66" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K66" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L66" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M66" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N66" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
@@ -3921,7 +3919,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" ht="28.8">
+    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -3965,7 +3963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3981,7 +3979,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3997,49 +3995,49 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C71" s="4">
         <v>0.28125</v>
       </c>
       <c r="D71" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E71" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F71" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G71" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H71" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I71" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J71" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K71" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L71" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M71" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N71" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
@@ -4079,7 +4077,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" ht="28.8">
+    <row r="73" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>143</v>
       </c>
@@ -4123,7 +4121,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4139,7 +4137,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4155,49 +4153,49 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C76" s="4">
         <v>0.28125</v>
       </c>
       <c r="D76" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E76" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F76" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G76" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H76" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I76" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J76" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K76" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L76" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M76" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N76" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
@@ -4237,7 +4235,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" ht="28.8">
+    <row r="78" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>144</v>
       </c>
@@ -4281,7 +4279,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4297,7 +4295,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4313,49 +4311,49 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C81" s="4">
         <v>0.28125</v>
       </c>
       <c r="D81" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E81" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F81" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G81" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H81" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I81" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J81" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K81" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L81" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M81" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N81" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
@@ -4395,7 +4393,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" ht="43.2">
+    <row r="83" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>145</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4455,7 +4453,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4471,49 +4469,49 @@
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C86" s="4">
         <v>0.28125</v>
       </c>
       <c r="D86" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E86" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F86" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G86" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H86" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I86" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J86" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K86" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L86" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M86" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N86" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
@@ -4553,7 +4551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" ht="28.8">
+    <row r="88" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>146</v>
       </c>
@@ -4597,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4613,7 +4611,7 @@
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4629,49 +4627,49 @@
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C91" s="4">
         <v>0.28125</v>
       </c>
       <c r="D91" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E91" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F91" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G91" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H91" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I91" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J91" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K91" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L91" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M91" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N91" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
@@ -4711,7 +4709,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" ht="28.8">
+    <row r="93" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>147</v>
       </c>
@@ -4755,7 +4753,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4771,7 +4769,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4787,49 +4785,49 @@
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C96" s="4">
         <v>0.28125</v>
       </c>
       <c r="D96" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E96" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F96" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G96" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H96" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I96" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J96" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K96" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L96" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M96" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N96" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
@@ -4869,7 +4867,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" ht="57.6">
+    <row r="98" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>148</v>
       </c>
@@ -4913,7 +4911,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4929,7 +4927,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4945,49 +4943,49 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C101" s="4">
         <v>0.28125</v>
       </c>
       <c r="D101" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E101" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F101" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G101" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H101" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I101" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J101" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K101" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L101" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M101" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N101" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
@@ -5027,7 +5025,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" ht="43.2">
+    <row r="103" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -5071,7 +5069,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -5087,7 +5085,7 @@
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5103,49 +5101,49 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C106" s="4">
         <v>0.28125</v>
       </c>
       <c r="D106" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E106" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F106" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G106" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H106" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I106" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J106" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K106" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L106" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M106" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N106" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
@@ -5185,7 +5183,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="108" ht="28.8">
+    <row r="108" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>150</v>
       </c>
@@ -5229,7 +5227,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5245,7 +5243,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5261,49 +5259,49 @@
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C111" s="4">
         <v>0.28125</v>
       </c>
       <c r="D111" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E111" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F111" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G111" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H111" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I111" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J111" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K111" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L111" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M111" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N111" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
@@ -5343,7 +5341,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" ht="28.8">
+    <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>151</v>
       </c>
@@ -5387,7 +5385,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5403,7 +5401,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5419,7 +5417,7 @@
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5435,49 +5433,49 @@
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C117" s="4">
         <v>0.28125</v>
       </c>
       <c r="D117" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E117" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F117" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G117" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H117" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I117" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J117" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K117" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L117" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M117" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N117" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>152</v>
       </c>
@@ -5519,7 +5517,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="119" ht="28.8">
+    <row r="119" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>193</v>
       </c>
@@ -5563,7 +5561,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5579,7 +5577,7 @@
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5595,49 +5593,49 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C122" s="4">
         <v>0.28125</v>
       </c>
       <c r="D122" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E122" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F122" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G122" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H122" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I122" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J122" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K122" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L122" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M122" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N122" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>153</v>
       </c>
@@ -5679,7 +5677,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="124" ht="28.8">
+    <row r="124" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>154</v>
       </c>
@@ -5723,7 +5721,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5739,7 +5737,7 @@
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5755,49 +5753,49 @@
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C127" s="4">
         <v>0.28125</v>
       </c>
       <c r="D127" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E127" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F127" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G127" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H127" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I127" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J127" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K127" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L127" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M127" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N127" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>154</v>
       </c>
@@ -5839,7 +5837,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="129" ht="43.2">
+    <row r="129" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>155</v>
       </c>
@@ -5883,7 +5881,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5899,7 +5897,7 @@
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5915,49 +5913,49 @@
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C132" s="4">
         <v>0.28125</v>
       </c>
       <c r="D132" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E132" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F132" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G132" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H132" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I132" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J132" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K132" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L132" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M132" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N132" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>155</v>
       </c>
@@ -5999,7 +5997,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="134" ht="28.8">
+    <row r="134" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>156</v>
       </c>
@@ -6043,7 +6041,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6059,7 +6057,7 @@
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6075,49 +6073,49 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C137" s="4">
         <v>0.28125</v>
       </c>
       <c r="D137" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E137" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F137" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G137" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H137" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I137" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J137" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K137" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L137" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M137" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N137" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="138" ht="28.8">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>156</v>
       </c>
@@ -6159,7 +6157,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="139" ht="28.8">
+    <row r="139" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>157</v>
       </c>
@@ -6203,7 +6201,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6219,7 +6217,7 @@
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6235,49 +6233,49 @@
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C142" s="4">
         <v>0.28125</v>
       </c>
       <c r="D142" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E142" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F142" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G142" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H142" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I142" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J142" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K142" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L142" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M142" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N142" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>157</v>
       </c>
@@ -6319,7 +6317,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="144" ht="57.6">
+    <row r="144" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>158</v>
       </c>
@@ -6363,7 +6361,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6379,7 +6377,7 @@
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6395,49 +6393,49 @@
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C147" s="4">
         <v>0.28125</v>
       </c>
       <c r="D147" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E147" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F147" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G147" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H147" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I147" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J147" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K147" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L147" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M147" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N147" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>158</v>
       </c>
@@ -6479,7 +6477,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="149" ht="28.8">
+    <row r="149" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>193</v>
       </c>
@@ -6523,7 +6521,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6539,7 +6537,7 @@
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6555,49 +6553,49 @@
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C152" s="4">
         <v>0.28125</v>
       </c>
       <c r="D152" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E152" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F152" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G152" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H152" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I152" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J152" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K152" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L152" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M152" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N152" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>159</v>
       </c>
@@ -6639,7 +6637,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="154" ht="28.8">
+    <row r="154" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>160</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6699,7 +6697,7 @@
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6715,49 +6713,49 @@
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C157" s="4">
         <v>0.28125</v>
       </c>
       <c r="D157" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E157" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F157" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G157" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H157" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I157" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J157" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K157" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L157" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M157" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N157" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="158" ht="28.8">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
@@ -6799,7 +6797,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" ht="28.8">
+    <row r="159" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -6843,7 +6841,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6859,7 +6857,7 @@
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6875,49 +6873,49 @@
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C162" s="4">
         <v>0.28125</v>
       </c>
       <c r="D162" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E162" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F162" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G162" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H162" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I162" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J162" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K162" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L162" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M162" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N162" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>161</v>
       </c>
@@ -6959,7 +6957,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="164" ht="28.8">
+    <row r="164" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>162</v>
       </c>
@@ -7003,7 +7001,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7019,7 +7017,7 @@
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7035,49 +7033,49 @@
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C167" s="4">
         <v>0.28125</v>
       </c>
       <c r="D167" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E167" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F167" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G167" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H167" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I167" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J167" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K167" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L167" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M167" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N167" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>162</v>
       </c>
@@ -7119,7 +7117,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="169" ht="28.8">
+    <row r="169" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>163</v>
       </c>
@@ -7163,7 +7161,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7179,7 +7177,7 @@
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7195,49 +7193,49 @@
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C172" s="4">
         <v>0.28125</v>
       </c>
       <c r="D172" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E172" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F172" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G172" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H172" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I172" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J172" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K172" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L172" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M172" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N172" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="173" ht="28.8">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>163</v>
       </c>
@@ -7279,7 +7277,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="174" ht="28.8">
+    <row r="174" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>164</v>
       </c>
@@ -7323,7 +7321,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7339,7 +7337,7 @@
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7355,49 +7353,49 @@
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C177" s="4">
         <v>0.28125</v>
       </c>
       <c r="D177" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E177" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F177" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G177" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H177" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I177" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J177" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K177" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L177" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M177" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N177" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>164</v>
       </c>
@@ -7439,7 +7437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" ht="43.2">
+    <row r="179" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>193</v>
       </c>
@@ -7483,7 +7481,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7499,7 +7497,7 @@
       <c r="M180" s="5"/>
       <c r="N180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7515,49 +7513,49 @@
       <c r="M181" s="5"/>
       <c r="N181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C182" s="4">
         <v>0.28125</v>
       </c>
       <c r="D182" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E182" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F182" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G182" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H182" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I182" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J182" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K182" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L182" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M182" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N182" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>165</v>
       </c>
@@ -7599,7 +7597,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="184" ht="28.8">
+    <row r="184" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>166</v>
       </c>
@@ -7643,7 +7641,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7659,7 +7657,7 @@
       <c r="M185" s="5"/>
       <c r="N185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7675,49 +7673,49 @@
       <c r="M186" s="5"/>
       <c r="N186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C187" s="4">
         <v>0.28125</v>
       </c>
       <c r="D187" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E187" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F187" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G187" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H187" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I187" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J187" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K187" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L187" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M187" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N187" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="188" ht="28.8">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>166</v>
       </c>
@@ -7759,7 +7757,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="189" ht="57.6">
+    <row r="189" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>167</v>
       </c>
@@ -7803,7 +7801,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7819,7 +7817,7 @@
       <c r="M190" s="5"/>
       <c r="N190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7835,7 +7833,7 @@
       <c r="M191" s="5"/>
       <c r="N191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7851,7 +7849,7 @@
       <c r="M192" s="5"/>
       <c r="N192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>167</v>
       </c>
@@ -7869,7 +7867,7 @@
       <c r="M193" s="5"/>
       <c r="N193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7885,49 +7883,49 @@
       <c r="M194" s="5"/>
       <c r="N194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C195" s="4">
         <v>0.28125</v>
       </c>
       <c r="D195" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E195" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F195" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G195" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H195" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I195" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J195" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K195" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L195" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M195" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N195" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2" t="s">
@@ -7967,7 +7965,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="197" ht="28.8">
+    <row r="197" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>168</v>
       </c>
@@ -8011,7 +8009,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" ht="28.8">
+    <row r="198" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>168</v>
       </c>
@@ -8029,7 +8027,7 @@
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8045,49 +8043,49 @@
       <c r="M199" s="5"/>
       <c r="N199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C200" s="4">
         <v>0.28125</v>
       </c>
       <c r="D200" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E200" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F200" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G200" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H200" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I200" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J200" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K200" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L200" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M200" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N200" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -8127,7 +8125,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="202" ht="28.8">
+    <row r="202" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>169</v>
       </c>
@@ -8171,7 +8169,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>169</v>
       </c>
@@ -8189,7 +8187,7 @@
       <c r="M203" s="5"/>
       <c r="N203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8205,49 +8203,49 @@
       <c r="M204" s="5"/>
       <c r="N204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C205" s="4">
         <v>0.28125</v>
       </c>
       <c r="D205" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E205" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F205" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G205" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H205" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I205" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J205" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K205" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L205" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M205" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N205" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -8287,7 +8285,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" ht="57.6">
+    <row r="207" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>170</v>
       </c>
@@ -8331,7 +8329,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>170</v>
       </c>
@@ -8349,7 +8347,7 @@
       <c r="M208" s="5"/>
       <c r="N208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8365,49 +8363,49 @@
       <c r="M209" s="5"/>
       <c r="N209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C210" s="4">
         <v>0.28125</v>
       </c>
       <c r="D210" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E210" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F210" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G210" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H210" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I210" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J210" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K210" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L210" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M210" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N210" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -8447,7 +8445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="212" ht="57.6">
+    <row r="212" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>193</v>
       </c>
@@ -8491,7 +8489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>171</v>
       </c>
@@ -8509,7 +8507,7 @@
       <c r="M213" s="5"/>
       <c r="N213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8525,49 +8523,49 @@
       <c r="M214" s="5"/>
       <c r="N214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C215" s="4">
         <v>0.28125</v>
       </c>
       <c r="D215" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E215" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F215" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G215" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H215" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I215" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J215" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K215" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L215" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M215" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N215" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -8607,7 +8605,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="217" ht="28.8">
+    <row r="217" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>172</v>
       </c>
@@ -8651,7 +8649,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>172</v>
       </c>
@@ -8669,7 +8667,7 @@
       <c r="M218" s="5"/>
       <c r="N218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8685,49 +8683,49 @@
       <c r="M219" s="5"/>
       <c r="N219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C220" s="4">
         <v>0.28125</v>
       </c>
       <c r="D220" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E220" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F220" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G220" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H220" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I220" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J220" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K220" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L220" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M220" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N220" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -8767,7 +8765,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="222" ht="28.8">
+    <row r="222" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>173</v>
       </c>
@@ -8811,7 +8809,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>173</v>
       </c>
@@ -8829,7 +8827,7 @@
       <c r="M223" s="5"/>
       <c r="N223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8845,49 +8843,49 @@
       <c r="M224" s="5"/>
       <c r="N224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C225" s="4">
         <v>0.28125</v>
       </c>
       <c r="D225" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E225" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F225" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G225" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H225" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I225" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J225" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K225" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L225" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M225" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N225" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -8927,7 +8925,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="227" ht="28.8">
+    <row r="227" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>174</v>
       </c>
@@ -8971,7 +8969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>174</v>
       </c>
@@ -8989,7 +8987,7 @@
       <c r="M228" s="5"/>
       <c r="N228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9005,49 +9003,49 @@
       <c r="M229" s="5"/>
       <c r="N229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C230" s="4">
         <v>0.28125</v>
       </c>
       <c r="D230" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E230" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F230" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G230" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H230" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I230" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J230" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K230" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L230" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M230" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N230" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -9087,7 +9085,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="232" ht="28.8">
+    <row r="232" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>175</v>
       </c>
@@ -9131,7 +9129,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>175</v>
       </c>
@@ -9149,7 +9147,7 @@
       <c r="M233" s="5"/>
       <c r="N233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9165,49 +9163,49 @@
       <c r="M234" s="5"/>
       <c r="N234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C235" s="4">
         <v>0.28125</v>
       </c>
       <c r="D235" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E235" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F235" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G235" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H235" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I235" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J235" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K235" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L235" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M235" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N235" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2" t="s">
@@ -9247,7 +9245,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="237" ht="43.2">
+    <row r="237" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>176</v>
       </c>
@@ -9291,7 +9289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>176</v>
       </c>
@@ -9309,7 +9307,7 @@
       <c r="M238" s="5"/>
       <c r="N238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9325,49 +9323,49 @@
       <c r="M239" s="5"/>
       <c r="N239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C240" s="4">
         <v>0.28125</v>
       </c>
       <c r="D240" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E240" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F240" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G240" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H240" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I240" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J240" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K240" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L240" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M240" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N240" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2" t="s">
@@ -9407,7 +9405,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="242" ht="28.8">
+    <row r="242" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>193</v>
       </c>
@@ -9451,7 +9449,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>177</v>
       </c>
@@ -9469,7 +9467,7 @@
       <c r="M243" s="5"/>
       <c r="N243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9485,49 +9483,49 @@
       <c r="M244" s="5"/>
       <c r="N244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C245" s="4">
         <v>0.28125</v>
       </c>
       <c r="D245" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E245" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F245" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G245" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H245" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I245" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J245" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K245" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L245" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M245" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N245" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
@@ -9567,7 +9565,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="247" ht="28.8">
+    <row r="247" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>178</v>
       </c>
@@ -9611,7 +9609,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>178</v>
       </c>
@@ -9629,7 +9627,7 @@
       <c r="M248" s="5"/>
       <c r="N248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -9645,49 +9643,49 @@
       <c r="M249" s="5"/>
       <c r="N249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C250" s="4">
         <v>0.28125</v>
       </c>
       <c r="D250" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E250" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F250" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G250" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H250" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I250" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J250" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K250" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L250" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M250" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N250" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2" t="s">
@@ -9727,7 +9725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="252" ht="57.6">
+    <row r="252" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>179</v>
       </c>
@@ -9771,7 +9769,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="253" ht="28.8">
+    <row r="253" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>179</v>
       </c>
@@ -9789,7 +9787,7 @@
       <c r="M253" s="5"/>
       <c r="N253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -9805,49 +9803,49 @@
       <c r="M254" s="5"/>
       <c r="N254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C255" s="4">
         <v>0.28125</v>
       </c>
       <c r="D255" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E255" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F255" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G255" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H255" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I255" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J255" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K255" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L255" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M255" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N255" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
@@ -9887,7 +9885,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="257" ht="28.8">
+    <row r="257" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>180</v>
       </c>
@@ -9931,7 +9929,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>180</v>
       </c>
@@ -9949,7 +9947,7 @@
       <c r="M258" s="5"/>
       <c r="N258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -9965,49 +9963,49 @@
       <c r="M259" s="5"/>
       <c r="N259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C260" s="4">
         <v>0.28125</v>
       </c>
       <c r="D260" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E260" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F260" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G260" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H260" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I260" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J260" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K260" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L260" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M260" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N260" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2" t="s">
@@ -10047,7 +10045,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="262" ht="28.8">
+    <row r="262" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>181</v>
       </c>
@@ -10091,7 +10089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>181</v>
       </c>
@@ -10109,7 +10107,7 @@
       <c r="M263" s="5"/>
       <c r="N263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -10125,49 +10123,49 @@
       <c r="M264" s="5"/>
       <c r="N264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C265" s="4">
         <v>0.28125</v>
       </c>
       <c r="D265" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E265" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F265" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G265" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H265" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I265" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J265" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K265" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L265" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M265" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N265" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
@@ -10207,7 +10205,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="267" ht="28.8">
+    <row r="267" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>182</v>
       </c>
@@ -10251,7 +10249,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>182</v>
       </c>
@@ -10269,7 +10267,7 @@
       <c r="M268" s="5"/>
       <c r="N268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -10285,49 +10283,49 @@
       <c r="M269" s="5"/>
       <c r="N269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C270" s="4">
         <v>0.28125</v>
       </c>
       <c r="D270" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E270" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F270" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G270" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H270" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I270" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J270" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K270" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L270" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M270" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N270" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
@@ -10367,7 +10365,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="272" ht="28.8">
+    <row r="272" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>193</v>
       </c>
@@ -10411,7 +10409,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>183</v>
       </c>
@@ -10429,7 +10427,7 @@
       <c r="M273" s="5"/>
       <c r="N273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -10445,49 +10443,49 @@
       <c r="M274" s="5"/>
       <c r="N274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C275" s="4">
         <v>0.28125</v>
       </c>
       <c r="D275" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E275" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F275" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G275" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H275" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I275" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J275" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K275" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L275" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M275" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N275" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2" t="s">
@@ -10527,7 +10525,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="277" ht="28.8">
+    <row r="277" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>184</v>
       </c>
@@ -10571,7 +10569,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="278" ht="28.8">
+    <row r="278" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>184</v>
       </c>
@@ -10589,7 +10587,7 @@
       <c r="M278" s="5"/>
       <c r="N278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -10605,49 +10603,49 @@
       <c r="M279" s="5"/>
       <c r="N279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C280" s="4">
         <v>0.28125</v>
       </c>
       <c r="D280" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E280" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F280" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G280" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H280" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I280" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J280" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K280" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L280" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M280" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N280" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2" t="s">
@@ -10687,7 +10685,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="282" ht="57.6">
+    <row r="282" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>185</v>
       </c>
@@ -10731,7 +10729,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>185</v>
       </c>
@@ -10749,7 +10747,7 @@
       <c r="M283" s="5"/>
       <c r="N283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -10765,49 +10763,49 @@
       <c r="M284" s="5"/>
       <c r="N284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C285" s="4">
         <v>0.28125</v>
       </c>
       <c r="D285" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E285" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F285" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G285" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H285" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I285" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J285" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K285" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L285" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M285" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N285" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
@@ -10847,7 +10845,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="287" ht="28.8">
+    <row r="287" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>186</v>
       </c>
@@ -10891,7 +10889,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>186</v>
       </c>
@@ -10909,7 +10907,7 @@
       <c r="M288" s="5"/>
       <c r="N288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -10925,49 +10923,49 @@
       <c r="M289" s="5"/>
       <c r="N289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C290" s="4">
         <v>0.28125</v>
       </c>
       <c r="D290" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E290" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F290" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G290" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H290" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I290" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J290" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K290" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L290" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M290" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N290" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
@@ -11007,7 +11005,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="292" ht="28.8">
+    <row r="292" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>187</v>
       </c>
@@ -11051,7 +11049,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>187</v>
       </c>
@@ -11069,7 +11067,7 @@
       <c r="M293" s="5"/>
       <c r="N293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -11085,49 +11083,49 @@
       <c r="M294" s="5"/>
       <c r="N294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C295" s="4">
         <v>0.28125</v>
       </c>
       <c r="D295" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E295" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F295" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G295" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H295" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I295" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J295" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K295" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L295" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M295" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N295" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2" t="s">
@@ -11167,7 +11165,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="297" ht="28.8">
+    <row r="297" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>188</v>
       </c>
@@ -11211,7 +11209,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>188</v>
       </c>
@@ -11229,7 +11227,7 @@
       <c r="M298" s="5"/>
       <c r="N298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -11245,49 +11243,49 @@
       <c r="M299" s="5"/>
       <c r="N299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="3">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="C300" s="4">
         <v>0.28125</v>
       </c>
       <c r="D300" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="E300" s="4">
-        <v>0.288194444444444</v>
+        <v>0.28819444444444398</v>
       </c>
       <c r="F300" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="G300" s="4">
-        <v>0.295138888888889</v>
+        <v>0.29513888888888901</v>
       </c>
       <c r="H300" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="I300" s="4">
-        <v>0.302083333333333</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="J300" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="K300" s="4">
-        <v>0.309027777777778</v>
+        <v>0.30902777777777801</v>
       </c>
       <c r="L300" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="M300" s="4">
-        <v>0.315972222222222</v>
+        <v>0.31597222222222199</v>
       </c>
       <c r="N300" s="4">
-        <v>0.322916666666667</v>
-      </c>
-    </row>
-    <row r="301">
+        <v>0.32291666666666702</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2" t="s">
@@ -11327,7 +11325,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="302" ht="43.2">
+    <row r="302" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>193</v>
       </c>
@@ -11373,7 +11371,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -11381,1213 +11378,1212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>133</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" t="s">
         <v>131</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" t="s">
         <v>139</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>140</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" t="s">
         <v>138</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" t="s">
         <v>140</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="K43" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>140</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" t="s">
         <v>135</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" t="s">
         <v>136</v>
       </c>
-      <c r="K48" s="0" t="s">
+      <c r="K48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>136</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" t="s">
         <v>137</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" t="s">
         <v>135</v>
       </c>
-      <c r="K53" s="0" t="s">
+      <c r="K53" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>138</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" t="s">
         <v>136</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" t="s">
         <v>137</v>
       </c>
-      <c r="K58" s="0" t="s">
+      <c r="K58" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>142</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" t="s">
         <v>144</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" t="s">
         <v>145</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="K63" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" t="s">
         <v>145</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" t="s">
         <v>146</v>
       </c>
-      <c r="I68" s="0" t="s">
+      <c r="I68" t="s">
         <v>144</v>
       </c>
-      <c r="K68" s="0" t="s">
+      <c r="K68" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" t="s">
         <v>141</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" t="s">
         <v>145</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="I73" t="s">
         <v>146</v>
       </c>
-      <c r="K73" s="0" t="s">
+      <c r="K73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" t="s">
         <v>146</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" t="s">
         <v>141</v>
       </c>
-      <c r="I78" s="0" t="s">
+      <c r="I78" t="s">
         <v>142</v>
       </c>
-      <c r="K78" s="0" t="s">
+      <c r="K78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>146</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" t="s">
         <v>143</v>
       </c>
-      <c r="I83" s="0" t="s">
+      <c r="I83" t="s">
         <v>141</v>
       </c>
-      <c r="K83" s="0" t="s">
+      <c r="K83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>146</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>145</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" t="s">
         <v>144</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" t="s">
         <v>142</v>
       </c>
-      <c r="I88" s="0" t="s">
+      <c r="I88" t="s">
         <v>143</v>
       </c>
-      <c r="K88" s="0" t="s">
+      <c r="K88" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>148</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" t="s">
         <v>149</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" t="s">
         <v>150</v>
       </c>
-      <c r="I93" s="0" t="s">
+      <c r="I93" t="s">
         <v>151</v>
       </c>
-      <c r="K93" s="0" t="s">
+      <c r="K93" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>147</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" t="s">
         <v>150</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" t="s">
         <v>152</v>
       </c>
-      <c r="I98" s="0" t="s">
+      <c r="I98" t="s">
         <v>149</v>
       </c>
-      <c r="K98" s="0" t="s">
+      <c r="K98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>152</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" t="s">
         <v>147</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" t="s">
         <v>151</v>
       </c>
-      <c r="I103" s="0" t="s">
+      <c r="I103" t="s">
         <v>148</v>
       </c>
-      <c r="K103" s="0" t="s">
+      <c r="K103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>151</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" t="s">
         <v>148</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G108" t="s">
         <v>147</v>
       </c>
-      <c r="I108" s="0" t="s">
+      <c r="I108" t="s">
         <v>152</v>
       </c>
-      <c r="K108" s="0" t="s">
+      <c r="K108" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>151</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" t="s">
         <v>152</v>
       </c>
-      <c r="G113" s="0" t="s">
+      <c r="G113" t="s">
         <v>149</v>
       </c>
-      <c r="I113" s="0" t="s">
+      <c r="I113" t="s">
         <v>147</v>
       </c>
-      <c r="K113" s="0" t="s">
+      <c r="K113" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>152</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>149</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" t="s">
         <v>151</v>
       </c>
-      <c r="G118" s="0" t="s">
+      <c r="G118" t="s">
         <v>148</v>
       </c>
-      <c r="I118" s="0" t="s">
+      <c r="I118" t="s">
         <v>150</v>
       </c>
-      <c r="K118" s="0" t="s">
+      <c r="K118" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>153</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>154</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" t="s">
         <v>155</v>
       </c>
-      <c r="G123" s="0" t="s">
+      <c r="G123" t="s">
         <v>156</v>
       </c>
-      <c r="I123" s="0" t="s">
+      <c r="I123" t="s">
         <v>157</v>
       </c>
-      <c r="K123" s="0" t="s">
+      <c r="K123" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>154</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>153</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" t="s">
         <v>157</v>
       </c>
-      <c r="G128" s="0" t="s">
+      <c r="G128" t="s">
         <v>158</v>
       </c>
-      <c r="I128" s="0" t="s">
+      <c r="I128" t="s">
         <v>156</v>
       </c>
-      <c r="K128" s="0" t="s">
+      <c r="K128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>155</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>156</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" t="s">
         <v>153</v>
       </c>
-      <c r="G133" s="0" t="s">
+      <c r="G133" t="s">
         <v>157</v>
       </c>
-      <c r="I133" s="0" t="s">
+      <c r="I133" t="s">
         <v>158</v>
       </c>
-      <c r="K133" s="0" t="s">
+      <c r="K133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>156</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>155</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" t="s">
         <v>158</v>
       </c>
-      <c r="G138" s="0" t="s">
+      <c r="G138" t="s">
         <v>153</v>
       </c>
-      <c r="I138" s="0" t="s">
+      <c r="I138" t="s">
         <v>154</v>
       </c>
-      <c r="K138" s="0" t="s">
+      <c r="K138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>157</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>158</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" t="s">
         <v>154</v>
       </c>
-      <c r="G143" s="0" t="s">
+      <c r="G143" t="s">
         <v>155</v>
       </c>
-      <c r="I143" s="0" t="s">
+      <c r="I143" t="s">
         <v>153</v>
       </c>
-      <c r="K143" s="0" t="s">
+      <c r="K143" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>157</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="E148" t="s">
         <v>156</v>
       </c>
-      <c r="G148" s="0" t="s">
+      <c r="G148" t="s">
         <v>154</v>
       </c>
-      <c r="I148" s="0" t="s">
+      <c r="I148" t="s">
         <v>155</v>
       </c>
-      <c r="K148" s="0" t="s">
+      <c r="K148" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>159</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" t="s">
         <v>163</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="E153" t="s">
         <v>160</v>
       </c>
-      <c r="G153" s="0" t="s">
+      <c r="G153" t="s">
         <v>161</v>
       </c>
-      <c r="I153" s="0" t="s">
+      <c r="I153" t="s">
         <v>162</v>
       </c>
-      <c r="K153" s="0" t="s">
+      <c r="K153" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" t="s">
         <v>164</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" t="s">
         <v>159</v>
       </c>
-      <c r="G158" s="0" t="s">
+      <c r="G158" t="s">
         <v>162</v>
       </c>
-      <c r="I158" s="0" t="s">
+      <c r="I158" t="s">
         <v>163</v>
       </c>
-      <c r="K158" s="0" t="s">
+      <c r="K158" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" t="s">
         <v>162</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" t="s">
         <v>163</v>
       </c>
-      <c r="G163" s="0" t="s">
+      <c r="G163" t="s">
         <v>159</v>
       </c>
-      <c r="I163" s="0" t="s">
+      <c r="I163" t="s">
         <v>164</v>
       </c>
-      <c r="K163" s="0" t="s">
+      <c r="K163" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>162</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" t="s">
         <v>161</v>
       </c>
-      <c r="E168" s="0" t="s">
+      <c r="E168" t="s">
         <v>164</v>
       </c>
-      <c r="G168" s="0" t="s">
+      <c r="G168" t="s">
         <v>160</v>
       </c>
-      <c r="I168" s="0" t="s">
+      <c r="I168" t="s">
         <v>159</v>
       </c>
-      <c r="K168" s="0" t="s">
+      <c r="K168" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>163</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" t="s">
         <v>159</v>
       </c>
-      <c r="E173" s="0" t="s">
+      <c r="E173" t="s">
         <v>161</v>
       </c>
-      <c r="G173" s="0" t="s">
+      <c r="G173" t="s">
         <v>164</v>
       </c>
-      <c r="I173" s="0" t="s">
+      <c r="I173" t="s">
         <v>160</v>
       </c>
-      <c r="K173" s="0" t="s">
+      <c r="K173" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>164</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" t="s">
         <v>160</v>
       </c>
-      <c r="E178" s="0" t="s">
+      <c r="E178" t="s">
         <v>162</v>
       </c>
-      <c r="G178" s="0" t="s">
+      <c r="G178" t="s">
         <v>163</v>
       </c>
-      <c r="I178" s="0" t="s">
+      <c r="I178" t="s">
         <v>161</v>
       </c>
-      <c r="K178" s="0" t="s">
+      <c r="K178" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>165</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" t="s">
         <v>169</v>
       </c>
-      <c r="E183" s="0" t="s">
+      <c r="E183" t="s">
         <v>166</v>
       </c>
-      <c r="G183" s="0" t="s">
+      <c r="G183" t="s">
         <v>167</v>
       </c>
-      <c r="I183" s="0" t="s">
+      <c r="I183" t="s">
         <v>168</v>
       </c>
-      <c r="K183" s="0" t="s">
+      <c r="K183" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>166</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" t="s">
         <v>167</v>
       </c>
-      <c r="E188" s="0" t="s">
+      <c r="E188" t="s">
         <v>165</v>
       </c>
-      <c r="G188" s="0" t="s">
+      <c r="G188" t="s">
         <v>168</v>
       </c>
-      <c r="I188" s="0" t="s">
+      <c r="I188" t="s">
         <v>170</v>
       </c>
-      <c r="K188" s="0" t="s">
+      <c r="K188" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>167</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" t="s">
         <v>166</v>
       </c>
-      <c r="E193" s="0" t="s">
+      <c r="E193" t="s">
         <v>170</v>
       </c>
-      <c r="G193" s="0" t="s">
+      <c r="G193" t="s">
         <v>165</v>
       </c>
-      <c r="I193" s="0" t="s">
+      <c r="I193" t="s">
         <v>169</v>
       </c>
-      <c r="K193" s="0" t="s">
+      <c r="K193" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>168</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" t="s">
         <v>170</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="E198" t="s">
         <v>169</v>
       </c>
-      <c r="G198" s="0" t="s">
+      <c r="G198" t="s">
         <v>166</v>
       </c>
-      <c r="I198" s="0" t="s">
+      <c r="I198" t="s">
         <v>165</v>
       </c>
-      <c r="K198" s="0" t="s">
+      <c r="K198" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>169</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" t="s">
         <v>165</v>
       </c>
-      <c r="E203" s="0" t="s">
+      <c r="E203" t="s">
         <v>168</v>
       </c>
-      <c r="G203" s="0" t="s">
+      <c r="G203" t="s">
         <v>170</v>
       </c>
-      <c r="I203" s="0" t="s">
+      <c r="I203" t="s">
         <v>167</v>
       </c>
-      <c r="K203" s="0" t="s">
+      <c r="K203" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>170</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" t="s">
         <v>168</v>
       </c>
-      <c r="E208" s="0" t="s">
+      <c r="E208" t="s">
         <v>167</v>
       </c>
-      <c r="G208" s="0" t="s">
+      <c r="G208" t="s">
         <v>169</v>
       </c>
-      <c r="I208" s="0" t="s">
+      <c r="I208" t="s">
         <v>166</v>
       </c>
-      <c r="K208" s="0" t="s">
+      <c r="K208" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>171</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" t="s">
         <v>173</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="E213" t="s">
         <v>175</v>
       </c>
-      <c r="G213" s="0" t="s">
+      <c r="G213" t="s">
         <v>172</v>
       </c>
-      <c r="I213" s="0" t="s">
+      <c r="I213" t="s">
         <v>174</v>
       </c>
-      <c r="K213" s="0" t="s">
+      <c r="K213" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>172</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" t="s">
         <v>174</v>
       </c>
-      <c r="E218" s="0" t="s">
+      <c r="E218" t="s">
         <v>173</v>
       </c>
-      <c r="G218" s="0" t="s">
+      <c r="G218" t="s">
         <v>171</v>
       </c>
-      <c r="I218" s="0" t="s">
+      <c r="I218" t="s">
         <v>176</v>
       </c>
-      <c r="K218" s="0" t="s">
+      <c r="K218" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>173</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" t="s">
         <v>171</v>
       </c>
-      <c r="E223" s="0" t="s">
+      <c r="E223" t="s">
         <v>172</v>
       </c>
-      <c r="G223" s="0" t="s">
+      <c r="G223" t="s">
         <v>176</v>
       </c>
-      <c r="I223" s="0" t="s">
+      <c r="I223" t="s">
         <v>175</v>
       </c>
-      <c r="K223" s="0" t="s">
+      <c r="K223" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>174</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" t="s">
         <v>172</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="E228" t="s">
         <v>176</v>
       </c>
-      <c r="G228" s="0" t="s">
+      <c r="G228" t="s">
         <v>175</v>
       </c>
-      <c r="I228" s="0" t="s">
+      <c r="I228" t="s">
         <v>171</v>
       </c>
-      <c r="K228" s="0" t="s">
+      <c r="K228" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>175</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" t="s">
         <v>176</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="E233" t="s">
         <v>171</v>
       </c>
-      <c r="G233" s="0" t="s">
+      <c r="G233" t="s">
         <v>174</v>
       </c>
-      <c r="I233" s="0" t="s">
+      <c r="I233" t="s">
         <v>173</v>
       </c>
-      <c r="K233" s="0" t="s">
+      <c r="K233" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>176</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" t="s">
         <v>175</v>
       </c>
-      <c r="E238" s="0" t="s">
+      <c r="E238" t="s">
         <v>174</v>
       </c>
-      <c r="G238" s="0" t="s">
+      <c r="G238" t="s">
         <v>173</v>
       </c>
-      <c r="I238" s="0" t="s">
+      <c r="I238" t="s">
         <v>172</v>
       </c>
-      <c r="K238" s="0" t="s">
+      <c r="K238" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="0" t="s">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>177</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C243" t="s">
         <v>179</v>
       </c>
-      <c r="E243" s="0" t="s">
+      <c r="E243" t="s">
         <v>181</v>
       </c>
-      <c r="G243" s="0" t="s">
+      <c r="G243" t="s">
         <v>178</v>
       </c>
-      <c r="I243" s="0" t="s">
+      <c r="I243" t="s">
         <v>180</v>
       </c>
-      <c r="K243" s="0" t="s">
+      <c r="K243" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="0" t="s">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>178</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" t="s">
         <v>180</v>
       </c>
-      <c r="E248" s="0" t="s">
+      <c r="E248" t="s">
         <v>179</v>
       </c>
-      <c r="G248" s="0" t="s">
+      <c r="G248" t="s">
         <v>177</v>
       </c>
-      <c r="I248" s="0" t="s">
+      <c r="I248" t="s">
         <v>182</v>
       </c>
-      <c r="K248" s="0" t="s">
+      <c r="K248" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="0" t="s">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>179</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C253" t="s">
         <v>177</v>
       </c>
-      <c r="E253" s="0" t="s">
+      <c r="E253" t="s">
         <v>178</v>
       </c>
-      <c r="G253" s="0" t="s">
+      <c r="G253" t="s">
         <v>182</v>
       </c>
-      <c r="I253" s="0" t="s">
+      <c r="I253" t="s">
         <v>181</v>
       </c>
-      <c r="K253" s="0" t="s">
+      <c r="K253" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="0" t="s">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>180</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="C258" t="s">
         <v>178</v>
       </c>
-      <c r="E258" s="0" t="s">
+      <c r="E258" t="s">
         <v>182</v>
       </c>
-      <c r="G258" s="0" t="s">
+      <c r="G258" t="s">
         <v>181</v>
       </c>
-      <c r="I258" s="0" t="s">
+      <c r="I258" t="s">
         <v>177</v>
       </c>
-      <c r="K258" s="0" t="s">
+      <c r="K258" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="0" t="s">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>181</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C263" t="s">
         <v>182</v>
       </c>
-      <c r="E263" s="0" t="s">
+      <c r="E263" t="s">
         <v>177</v>
       </c>
-      <c r="G263" s="0" t="s">
+      <c r="G263" t="s">
         <v>180</v>
       </c>
-      <c r="I263" s="0" t="s">
+      <c r="I263" t="s">
         <v>179</v>
       </c>
-      <c r="K263" s="0" t="s">
+      <c r="K263" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="0" t="s">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>182</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C268" t="s">
         <v>181</v>
       </c>
-      <c r="E268" s="0" t="s">
+      <c r="E268" t="s">
         <v>180</v>
       </c>
-      <c r="G268" s="0" t="s">
+      <c r="G268" t="s">
         <v>179</v>
       </c>
-      <c r="I268" s="0" t="s">
+      <c r="I268" t="s">
         <v>178</v>
       </c>
-      <c r="K268" s="0" t="s">
+      <c r="K268" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="0" t="s">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>183</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="C273" t="s">
         <v>185</v>
       </c>
-      <c r="E273" s="0" t="s">
+      <c r="E273" t="s">
         <v>187</v>
       </c>
-      <c r="G273" s="0" t="s">
+      <c r="G273" t="s">
         <v>188</v>
       </c>
-      <c r="I273" s="0" t="s">
+      <c r="I273" t="s">
         <v>184</v>
       </c>
-      <c r="K273" s="0" t="s">
+      <c r="K273" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="0" t="s">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>184</v>
       </c>
-      <c r="C278" s="0" t="s">
+      <c r="C278" t="s">
         <v>186</v>
       </c>
-      <c r="E278" s="0" t="s">
+      <c r="E278" t="s">
         <v>185</v>
       </c>
-      <c r="G278" s="0" t="s">
+      <c r="G278" t="s">
         <v>187</v>
       </c>
-      <c r="I278" s="0" t="s">
+      <c r="I278" t="s">
         <v>183</v>
       </c>
-      <c r="K278" s="0" t="s">
+      <c r="K278" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="0" t="s">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>185</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="C283" t="s">
         <v>183</v>
       </c>
-      <c r="E283" s="0" t="s">
+      <c r="E283" t="s">
         <v>184</v>
       </c>
-      <c r="G283" s="0" t="s">
+      <c r="G283" t="s">
         <v>186</v>
       </c>
-      <c r="I283" s="0" t="s">
+      <c r="I283" t="s">
         <v>188</v>
       </c>
-      <c r="K283" s="0" t="s">
+      <c r="K283" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="0" t="s">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>186</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="C288" t="s">
         <v>184</v>
       </c>
-      <c r="E288" s="0" t="s">
+      <c r="E288" t="s">
         <v>188</v>
       </c>
-      <c r="G288" s="0" t="s">
+      <c r="G288" t="s">
         <v>185</v>
       </c>
-      <c r="I288" s="0" t="s">
+      <c r="I288" t="s">
         <v>187</v>
       </c>
-      <c r="K288" s="0" t="s">
+      <c r="K288" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="0" t="s">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>187</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="C293" t="s">
         <v>188</v>
       </c>
-      <c r="E293" s="0" t="s">
+      <c r="E293" t="s">
         <v>183</v>
       </c>
-      <c r="G293" s="0" t="s">
+      <c r="G293" t="s">
         <v>184</v>
       </c>
-      <c r="I293" s="0" t="s">
+      <c r="I293" t="s">
         <v>186</v>
       </c>
-      <c r="K293" s="0" t="s">
+      <c r="K293" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="0" t="s">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>188</v>
       </c>
-      <c r="C298" s="0" t="s">
+      <c r="C298" t="s">
         <v>187</v>
       </c>
-      <c r="E298" s="0" t="s">
+      <c r="E298" t="s">
         <v>186</v>
       </c>
-      <c r="G298" s="0" t="s">
+      <c r="G298" t="s">
         <v>183</v>
       </c>
-      <c r="I298" s="0" t="s">
+      <c r="I298" t="s">
         <v>185</v>
       </c>
-      <c r="K298" s="0" t="s">
+      <c r="K298" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -12601,542 +12597,541 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" bestFit="1" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="G3" s="0" t="s">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" s="0" t="s">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" s="0" t="s">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="0" t="s">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="S7" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="T7" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="U7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="0" t="s">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="S8" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="T8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="U8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="0" t="s">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" s="0" t="s">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" s="0" t="s">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14">
-      <c r="E14" s="0" t="s">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15">
-      <c r="E15" s="0" t="s">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16">
-      <c r="E16" s="0" t="s">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17">
-      <c r="E17" s="0" t="s">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18">
-      <c r="E18" s="0" t="s">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19">
-      <c r="E19" s="0" t="s">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20">
-      <c r="E20" s="0" t="s">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21">
-      <c r="E21" s="0" t="s">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22">
-      <c r="E22" s="0" t="s">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23">
-      <c r="E23" s="0" t="s">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24">
-      <c r="E24" s="0" t="s">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25">
-      <c r="E25" s="0" t="s">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26">
-      <c r="E26" s="0" t="s">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27">
-      <c r="E27" s="0" t="s">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28">
-      <c r="E28" s="0" t="s">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29">
-      <c r="E29" s="0" t="s">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30">
-      <c r="E30" s="0" t="s">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31">
-      <c r="E31" s="0" t="s">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32">
-      <c r="E32" s="0" t="s">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33">
-      <c r="E33" s="0" t="s">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34">
-      <c r="E34" s="0" t="s">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35">
-      <c r="E35" s="0" t="s">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36">
-      <c r="E36" s="0" t="s">
+    <row r="36" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>90</v>
       </c>
-      <c r="Q36" s="0">
+      <c r="Q36">
         <f>242-96-10-96</f>
         <v>40</v>
       </c>
-      <c r="R36" s="0">
+      <c r="R36">
         <f>Q36/6</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="37">
-      <c r="E37" s="0" t="s">
+    <row r="37" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38">
-      <c r="E38" s="0" t="s">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39">
-      <c r="E39" s="0" t="s">
+    <row r="39" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40">
-      <c r="E40" s="0" t="s">
+    <row r="40" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41">
-      <c r="E41" s="0" t="s">
+    <row r="41" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42">
-      <c r="E42" s="0" t="s">
+    <row r="42" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43">
-      <c r="E43" s="0" t="s">
+    <row r="43" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49">
-      <c r="G49" s="0">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="0">
+      <c r="H49">
         <v>2</v>
       </c>
-      <c r="I49" s="0">
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="J49" s="0">
+      <c r="J49">
         <v>4</v>
       </c>
-      <c r="K49" s="0">
+      <c r="K49">
         <v>5</v>
       </c>
-      <c r="S49" s="0" t="s">
+      <c r="S49" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="0" t="s">
+      <c r="T49" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="0" t="s">
+      <c r="U49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50">
-      <c r="E50" s="0" t="s">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" t="s">
         <v>106</v>
       </c>
-      <c r="S50" s="0" t="s">
+      <c r="S50" t="s">
         <v>12</v>
       </c>
-      <c r="T50" s="0" t="s">
+      <c r="T50" t="s">
         <v>13</v>
       </c>
-      <c r="U50" s="0" t="s">
+      <c r="U50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51">
-      <c r="G51" s="0" t="s">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
         <v>107</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" t="s">
         <v>109</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="S51" s="0" t="s">
+      <c r="S51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52">
-      <c r="G52" s="0" t="s">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
         <v>111</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" t="s">
         <v>112</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" t="s">
         <v>113</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" t="s">
         <v>114</v>
       </c>
-      <c r="S52" s="0" t="s">
+      <c r="S52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53">
-      <c r="G53" s="0" t="s">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" t="s">
         <v>116</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" t="s">
         <v>117</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" t="s">
         <v>118</v>
       </c>
-      <c r="S53" s="0" t="s">
+      <c r="S53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54">
-      <c r="G54" s="0" t="s">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
         <v>119</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" t="s">
         <v>120</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" t="s">
         <v>122</v>
       </c>
-      <c r="S54" s="0" t="s">
+      <c r="S54" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -13144,170 +13139,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
-      <c r="E3" s="0" t="s">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" s="0" t="s">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>255</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" s="0" t="s">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>258</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>259</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>261</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>262</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="0" t="s">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>264</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>265</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="0" t="s">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>267</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>268</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>270</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="0" t="s">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>273</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>274</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" s="0" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>277</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" s="0" t="s">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>279</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>283</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -13319,166 +13321,165 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3">
-      <c r="E3" s="0" t="s">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" s="0" t="s">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>285</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>286</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" s="0" t="s">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>289</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>291</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>292</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="0" t="s">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>294</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>295</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="0" t="s">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>297</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>298</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>300</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="0" t="s">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>303</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>304</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" s="0" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>306</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>307</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" s="0" t="s">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>309</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>310</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>313</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -13490,166 +13491,165 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3">
-      <c r="E3" s="0" t="s">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" s="0" t="s">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>345</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>346</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" s="0" t="s">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>348</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>351</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>352</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="0" t="s">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>354</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>355</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="0" t="s">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>357</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>358</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>360</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>361</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="0" t="s">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>363</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>364</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" s="0" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>366</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>367</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" s="0" t="s">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>369</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>370</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>372</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>373</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -13661,166 +13661,165 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3">
-      <c r="E3" s="0" t="s">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" s="0" t="s">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" s="0" t="s">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>228</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>229</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>231</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>232</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="0" t="s">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>234</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>235</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="0" t="s">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>237</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>238</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>241</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="0" t="s">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>243</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" s="0" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>247</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" s="0" t="s">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>249</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>250</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>253</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>254</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -13832,165 +13831,164 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3">
-      <c r="E3" s="0" t="s">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" s="0" t="s">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>315</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>316</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" s="0" t="s">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>319</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="0" t="s">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>324</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>325</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="0" t="s">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>327</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>328</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>331</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="0" t="s">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>333</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" s="0" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>336</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>337</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" s="0" t="s">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>339</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>340</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>342</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>343</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>